--- a/JupyterNotebooks/AveragedIntensities-Exp/TRIP700F.xlsx
+++ b/JupyterNotebooks/AveragedIntensities-Exp/TRIP700F.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>HKL</t>
   </si>
   <si>
     <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Bruker</t>
   </si>
   <si>
     <t>ND Single</t>
@@ -563,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S48"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -633,55 +636,55 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -692,55 +695,55 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9417777777777778</v>
+        <v>0.9354827089337175</v>
       </c>
       <c r="D3">
-        <v>1.043194444444445</v>
+        <v>1.036808357348703</v>
       </c>
       <c r="E3">
-        <v>1.044166666666667</v>
+        <v>1.037564841498559</v>
       </c>
       <c r="F3">
-        <v>0.9417777777777778</v>
+        <v>0.9354827089337175</v>
       </c>
       <c r="G3">
-        <v>0.9515277777777778</v>
+        <v>0.9590922190201729</v>
       </c>
       <c r="H3">
-        <v>1.231</v>
+        <v>1.198638328530259</v>
       </c>
       <c r="I3">
-        <v>0.9787777777777777</v>
+        <v>0.9788832853025936</v>
       </c>
       <c r="J3">
-        <v>1.043194444444445</v>
+        <v>1.036808357348703</v>
       </c>
       <c r="K3">
-        <v>0.9417777777777778</v>
+        <v>0.9354827089337175</v>
       </c>
       <c r="L3">
-        <v>1.043680555555556</v>
+        <v>1.037186599423631</v>
       </c>
       <c r="M3">
-        <v>1.043680555555556</v>
+        <v>1.037186599423631</v>
       </c>
       <c r="N3">
-        <v>1.012962962962963</v>
+        <v>1.011155139289145</v>
       </c>
       <c r="O3">
-        <v>1.009712962962963</v>
+        <v>1.00328530259366</v>
       </c>
       <c r="P3">
-        <v>1.009712962962963</v>
+        <v>1.00328530259366</v>
       </c>
       <c r="Q3">
-        <v>0.9927291666666668</v>
+        <v>0.9863346541786743</v>
       </c>
       <c r="R3">
-        <v>0.9927291666666668</v>
+        <v>0.9863346541786743</v>
       </c>
       <c r="S3">
-        <v>1.031740740740741</v>
+        <v>1.024411623439001</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -751,55 +754,55 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.53</v>
+        <v>1.012637720645599</v>
       </c>
       <c r="D4">
-        <v>1.57</v>
+        <v>0.9854906548340724</v>
       </c>
       <c r="E4">
-        <v>1.39</v>
+        <v>0.9923442785986791</v>
       </c>
       <c r="F4">
-        <v>0.53</v>
+        <v>1.012637720645599</v>
       </c>
       <c r="G4">
-        <v>0.73</v>
+        <v>0.9862971980807925</v>
       </c>
       <c r="H4">
-        <v>3.03</v>
+        <v>0.9845002611835262</v>
       </c>
       <c r="I4">
-        <v>0.82</v>
+        <v>0.9922589580872768</v>
       </c>
       <c r="J4">
-        <v>1.57</v>
+        <v>0.9854906548340724</v>
       </c>
       <c r="K4">
-        <v>0.53</v>
+        <v>1.012637720645599</v>
       </c>
       <c r="L4">
-        <v>1.48</v>
+        <v>0.9889174667163758</v>
       </c>
       <c r="M4">
-        <v>1.48</v>
+        <v>0.9889174667163758</v>
       </c>
       <c r="N4">
-        <v>1.23</v>
+        <v>0.9880440438378481</v>
       </c>
       <c r="O4">
-        <v>1.163333333333333</v>
+        <v>0.9968242180261168</v>
       </c>
       <c r="P4">
-        <v>1.163333333333333</v>
+        <v>0.9968242180261168</v>
       </c>
       <c r="Q4">
-        <v>1.005</v>
+        <v>1.000777593680987</v>
       </c>
       <c r="R4">
-        <v>1.005</v>
+        <v>1.000777593680987</v>
       </c>
       <c r="S4">
-        <v>1.345</v>
+        <v>0.9922548452383243</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -810,55 +813,55 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.43</v>
+        <v>0.53</v>
       </c>
       <c r="D5">
-        <v>0.63</v>
+        <v>1.57</v>
       </c>
       <c r="E5">
-        <v>0.99</v>
+        <v>1.39</v>
       </c>
       <c r="F5">
-        <v>1.43</v>
+        <v>0.53</v>
       </c>
       <c r="G5">
-        <v>0.83</v>
+        <v>0.73</v>
       </c>
       <c r="H5">
-        <v>1.09</v>
+        <v>3.03</v>
       </c>
       <c r="I5">
-        <v>1.05</v>
+        <v>0.82</v>
       </c>
       <c r="J5">
-        <v>0.63</v>
+        <v>1.57</v>
       </c>
       <c r="K5">
-        <v>1.43</v>
+        <v>0.53</v>
       </c>
       <c r="L5">
-        <v>0.8100000000000001</v>
+        <v>1.48</v>
       </c>
       <c r="M5">
-        <v>0.8100000000000001</v>
+        <v>1.48</v>
       </c>
       <c r="N5">
-        <v>0.8166666666666668</v>
+        <v>1.23</v>
       </c>
       <c r="O5">
-        <v>1.016666666666667</v>
+        <v>1.163333333333333</v>
       </c>
       <c r="P5">
-        <v>1.016666666666667</v>
+        <v>1.163333333333333</v>
       </c>
       <c r="Q5">
-        <v>1.12</v>
+        <v>1.005</v>
       </c>
       <c r="R5">
-        <v>1.12</v>
+        <v>1.005</v>
       </c>
       <c r="S5">
-        <v>1.003333333333333</v>
+        <v>1.345</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -869,55 +872,55 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.95</v>
+        <v>1.43</v>
       </c>
       <c r="D6">
-        <v>1.01</v>
+        <v>0.63</v>
       </c>
       <c r="E6">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
       <c r="F6">
-        <v>2.95</v>
+        <v>1.43</v>
       </c>
       <c r="G6">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="H6">
-        <v>0.4</v>
+        <v>1.09</v>
       </c>
       <c r="I6">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="J6">
-        <v>1.01</v>
+        <v>0.63</v>
       </c>
       <c r="K6">
-        <v>2.95</v>
+        <v>1.43</v>
       </c>
       <c r="L6">
-        <v>0.9350000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M6">
-        <v>0.9350000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N6">
-        <v>0.9066666666666667</v>
+        <v>0.8166666666666668</v>
       </c>
       <c r="O6">
-        <v>1.606666666666667</v>
+        <v>1.016666666666667</v>
       </c>
       <c r="P6">
-        <v>1.606666666666667</v>
+        <v>1.016666666666667</v>
       </c>
       <c r="Q6">
-        <v>1.9425</v>
+        <v>1.12</v>
       </c>
       <c r="R6">
-        <v>1.9425</v>
+        <v>1.12</v>
       </c>
       <c r="S6">
-        <v>1.168333333333333</v>
+        <v>1.003333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -928,55 +931,55 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.47</v>
+        <v>2.95</v>
       </c>
       <c r="D7">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="E7">
-        <v>1.61</v>
+        <v>0.86</v>
       </c>
       <c r="F7">
-        <v>0.47</v>
+        <v>2.95</v>
       </c>
       <c r="G7">
-        <v>0.78</v>
+        <v>0.85</v>
       </c>
       <c r="H7">
-        <v>2.27</v>
+        <v>0.4</v>
       </c>
       <c r="I7">
-        <v>0.79</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J7">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="K7">
-        <v>0.47</v>
+        <v>2.95</v>
       </c>
       <c r="L7">
-        <v>1.6</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="M7">
-        <v>1.6</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="N7">
-        <v>1.326666666666667</v>
+        <v>0.9066666666666667</v>
       </c>
       <c r="O7">
-        <v>1.223333333333333</v>
+        <v>1.606666666666667</v>
       </c>
       <c r="P7">
-        <v>1.223333333333333</v>
+        <v>1.606666666666667</v>
       </c>
       <c r="Q7">
-        <v>1.035</v>
+        <v>1.9425</v>
       </c>
       <c r="R7">
-        <v>1.035</v>
+        <v>1.9425</v>
       </c>
       <c r="S7">
-        <v>1.251666666666667</v>
+        <v>1.168333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -987,55 +990,55 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.503561643835617</v>
+        <v>0.47</v>
       </c>
       <c r="D8">
-        <v>0.7761643835616439</v>
+        <v>1.59</v>
       </c>
       <c r="E8">
-        <v>0.9787671232876712</v>
+        <v>1.61</v>
       </c>
       <c r="F8">
-        <v>1.503561643835617</v>
+        <v>0.47</v>
       </c>
       <c r="G8">
-        <v>0.8727397260273972</v>
+        <v>0.78</v>
       </c>
       <c r="H8">
-        <v>0.7752054794520548</v>
+        <v>2.27</v>
       </c>
       <c r="I8">
-        <v>1.03054794520548</v>
+        <v>0.79</v>
       </c>
       <c r="J8">
-        <v>0.7761643835616439</v>
+        <v>1.59</v>
       </c>
       <c r="K8">
-        <v>1.503561643835617</v>
+        <v>0.47</v>
       </c>
       <c r="L8">
-        <v>0.8774657534246575</v>
+        <v>1.6</v>
       </c>
       <c r="M8">
-        <v>0.8774657534246575</v>
+        <v>1.6</v>
       </c>
       <c r="N8">
-        <v>0.875890410958904</v>
+        <v>1.326666666666667</v>
       </c>
       <c r="O8">
-        <v>1.086164383561644</v>
+        <v>1.223333333333333</v>
       </c>
       <c r="P8">
-        <v>1.086164383561644</v>
+        <v>1.223333333333333</v>
       </c>
       <c r="Q8">
-        <v>1.190513698630137</v>
+        <v>1.035</v>
       </c>
       <c r="R8">
-        <v>1.190513698630137</v>
+        <v>1.035</v>
       </c>
       <c r="S8">
-        <v>0.9894977168949772</v>
+        <v>1.251666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1046,55 +1049,55 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.045263157894737</v>
+        <v>1.503561643835617</v>
       </c>
       <c r="D9">
-        <v>0.9547368421052631</v>
+        <v>0.7761643835616439</v>
       </c>
       <c r="E9">
-        <v>1.026842105263158</v>
+        <v>0.9787671232876712</v>
       </c>
       <c r="F9">
-        <v>1.045263157894737</v>
+        <v>1.503561643835617</v>
       </c>
       <c r="G9">
-        <v>0.9152631578947369</v>
+        <v>0.8727397260273972</v>
       </c>
       <c r="H9">
-        <v>1.177894736842105</v>
+        <v>0.7752054794520548</v>
       </c>
       <c r="I9">
-        <v>1.007894736842105</v>
+        <v>1.03054794520548</v>
       </c>
       <c r="J9">
-        <v>0.9547368421052631</v>
+        <v>0.7761643835616439</v>
       </c>
       <c r="K9">
-        <v>1.045263157894737</v>
+        <v>1.503561643835617</v>
       </c>
       <c r="L9">
-        <v>0.9907894736842106</v>
+        <v>0.8774657534246575</v>
       </c>
       <c r="M9">
-        <v>0.9907894736842106</v>
+        <v>0.8774657534246575</v>
       </c>
       <c r="N9">
-        <v>0.9656140350877194</v>
+        <v>0.875890410958904</v>
       </c>
       <c r="O9">
-        <v>1.008947368421053</v>
+        <v>1.086164383561644</v>
       </c>
       <c r="P9">
-        <v>1.008947368421053</v>
+        <v>1.086164383561644</v>
       </c>
       <c r="Q9">
-        <v>1.018026315789474</v>
+        <v>1.190513698630137</v>
       </c>
       <c r="R9">
-        <v>1.018026315789474</v>
+        <v>1.190513698630137</v>
       </c>
       <c r="S9">
-        <v>1.021315789473684</v>
+        <v>0.9894977168949772</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1105,55 +1108,55 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.881578947368421</v>
+        <v>1.045263157894737</v>
       </c>
       <c r="D10">
-        <v>1.260526315789474</v>
+        <v>0.9547368421052631</v>
       </c>
       <c r="E10">
-        <v>1.070526315789474</v>
+        <v>1.026842105263158</v>
       </c>
       <c r="F10">
-        <v>0.881578947368421</v>
+        <v>1.045263157894737</v>
       </c>
       <c r="G10">
-        <v>0.9505263157894737</v>
+        <v>0.9152631578947369</v>
       </c>
       <c r="H10">
-        <v>1.447368421052632</v>
+        <v>1.177894736842105</v>
       </c>
       <c r="I10">
-        <v>0.9121052631578948</v>
+        <v>1.007894736842105</v>
       </c>
       <c r="J10">
-        <v>1.260526315789474</v>
+        <v>0.9547368421052631</v>
       </c>
       <c r="K10">
-        <v>0.881578947368421</v>
+        <v>1.045263157894737</v>
       </c>
       <c r="L10">
-        <v>1.165526315789474</v>
+        <v>0.9907894736842106</v>
       </c>
       <c r="M10">
-        <v>1.165526315789474</v>
+        <v>0.9907894736842106</v>
       </c>
       <c r="N10">
-        <v>1.093859649122807</v>
+        <v>0.9656140350877194</v>
       </c>
       <c r="O10">
-        <v>1.070877192982456</v>
+        <v>1.008947368421053</v>
       </c>
       <c r="P10">
-        <v>1.070877192982456</v>
+        <v>1.008947368421053</v>
       </c>
       <c r="Q10">
-        <v>1.023552631578947</v>
+        <v>1.018026315789474</v>
       </c>
       <c r="R10">
-        <v>1.023552631578947</v>
+        <v>1.018026315789474</v>
       </c>
       <c r="S10">
-        <v>1.087105263157895</v>
+        <v>1.021315789473684</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1164,55 +1167,55 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.6302120000000012</v>
+        <v>0.881578947368421</v>
       </c>
       <c r="D11">
-        <v>1.511647999999999</v>
+        <v>1.260526315789474</v>
       </c>
       <c r="E11">
-        <v>1.253792</v>
+        <v>1.070526315789474</v>
       </c>
       <c r="F11">
-        <v>0.6302120000000012</v>
+        <v>0.881578947368421</v>
       </c>
       <c r="G11">
-        <v>0.8561760000000022</v>
+        <v>0.9505263157894737</v>
       </c>
       <c r="H11">
-        <v>2.292863999999998</v>
+        <v>1.447368421052632</v>
       </c>
       <c r="I11">
-        <v>0.8450080000000014</v>
+        <v>0.9121052631578948</v>
       </c>
       <c r="J11">
-        <v>1.511647999999999</v>
+        <v>1.260526315789474</v>
       </c>
       <c r="K11">
-        <v>0.6302120000000012</v>
+        <v>0.881578947368421</v>
       </c>
       <c r="L11">
-        <v>1.38272</v>
+        <v>1.165526315789474</v>
       </c>
       <c r="M11">
-        <v>1.38272</v>
+        <v>1.165526315789474</v>
       </c>
       <c r="N11">
-        <v>1.207205333333334</v>
+        <v>1.093859649122807</v>
       </c>
       <c r="O11">
-        <v>1.131884</v>
+        <v>1.070877192982456</v>
       </c>
       <c r="P11">
-        <v>1.131884</v>
+        <v>1.070877192982456</v>
       </c>
       <c r="Q11">
-        <v>1.006466</v>
+        <v>1.023552631578947</v>
       </c>
       <c r="R11">
-        <v>1.006466</v>
+        <v>1.023552631578947</v>
       </c>
       <c r="S11">
-        <v>1.231616666666667</v>
+        <v>1.087105263157895</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1223,55 +1226,55 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.53</v>
+        <v>0.6302120000000012</v>
       </c>
       <c r="D12">
-        <v>1.57</v>
+        <v>1.511647999999999</v>
       </c>
       <c r="E12">
-        <v>1.3908375</v>
+        <v>1.253792</v>
       </c>
       <c r="F12">
-        <v>0.53</v>
+        <v>0.6302120000000012</v>
       </c>
       <c r="G12">
-        <v>0.73</v>
+        <v>0.8561760000000022</v>
       </c>
       <c r="H12">
-        <v>3.03</v>
+        <v>2.292863999999998</v>
       </c>
       <c r="I12">
-        <v>0.82</v>
+        <v>0.8450080000000014</v>
       </c>
       <c r="J12">
-        <v>1.57</v>
+        <v>1.511647999999999</v>
       </c>
       <c r="K12">
-        <v>0.53</v>
+        <v>0.6302120000000012</v>
       </c>
       <c r="L12">
-        <v>1.48041875</v>
+        <v>1.38272</v>
       </c>
       <c r="M12">
-        <v>1.48041875</v>
+        <v>1.38272</v>
       </c>
       <c r="N12">
-        <v>1.230279166666667</v>
+        <v>1.207205333333334</v>
       </c>
       <c r="O12">
-        <v>1.1636125</v>
+        <v>1.131884</v>
       </c>
       <c r="P12">
-        <v>1.1636125</v>
+        <v>1.131884</v>
       </c>
       <c r="Q12">
-        <v>1.005209375</v>
+        <v>1.006466</v>
       </c>
       <c r="R12">
-        <v>1.005209375</v>
+        <v>1.006466</v>
       </c>
       <c r="S12">
-        <v>1.345139583333333</v>
+        <v>1.231616666666667</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1282,55 +1285,55 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7190331122688037</v>
+        <v>0.53</v>
       </c>
       <c r="D13">
-        <v>1.312212428595201</v>
+        <v>1.57</v>
       </c>
       <c r="E13">
-        <v>1.214924963839999</v>
+        <v>1.3908375</v>
       </c>
       <c r="F13">
-        <v>0.7190331122688037</v>
+        <v>0.53</v>
       </c>
       <c r="G13">
-        <v>0.8458885244928022</v>
+        <v>0.73</v>
       </c>
       <c r="H13">
-        <v>2.119919032729602</v>
+        <v>3.03</v>
       </c>
       <c r="I13">
-        <v>0.8985033959424004</v>
+        <v>0.82</v>
       </c>
       <c r="J13">
-        <v>1.312212428595201</v>
+        <v>1.57</v>
       </c>
       <c r="K13">
-        <v>0.7190331122688037</v>
+        <v>0.53</v>
       </c>
       <c r="L13">
-        <v>1.2635686962176</v>
+        <v>1.48041875</v>
       </c>
       <c r="M13">
-        <v>1.2635686962176</v>
+        <v>1.48041875</v>
       </c>
       <c r="N13">
-        <v>1.124341972309334</v>
+        <v>1.230279166666667</v>
       </c>
       <c r="O13">
-        <v>1.082056834901335</v>
+        <v>1.1636125</v>
       </c>
       <c r="P13">
-        <v>1.082056834901335</v>
+        <v>1.1636125</v>
       </c>
       <c r="Q13">
-        <v>0.9913009042432019</v>
+        <v>1.005209375</v>
       </c>
       <c r="R13">
-        <v>0.9913009042432019</v>
+        <v>1.005209375</v>
       </c>
       <c r="S13">
-        <v>1.185080242978135</v>
+        <v>1.345139583333333</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1341,55 +1344,55 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9913888083855734</v>
+        <v>0.7190331122688037</v>
       </c>
       <c r="D14">
-        <v>0.9925452757136934</v>
+        <v>1.312212428595201</v>
       </c>
       <c r="E14">
-        <v>0.9920865509409903</v>
+        <v>1.214924963839999</v>
       </c>
       <c r="F14">
-        <v>0.9913888083855734</v>
+        <v>0.7190331122688037</v>
       </c>
       <c r="G14">
-        <v>0.9913043364302838</v>
+        <v>0.8458885244928022</v>
       </c>
       <c r="H14">
-        <v>0.9918818382650738</v>
+        <v>2.119919032729602</v>
       </c>
       <c r="I14">
-        <v>0.990769466101082</v>
+        <v>0.8985033959424004</v>
       </c>
       <c r="J14">
-        <v>0.9925452757136934</v>
+        <v>1.312212428595201</v>
       </c>
       <c r="K14">
-        <v>0.9913888083855734</v>
+        <v>0.7190331122688037</v>
       </c>
       <c r="L14">
-        <v>0.9923159133273418</v>
+        <v>1.2635686962176</v>
       </c>
       <c r="M14">
-        <v>0.9923159133273418</v>
+        <v>1.2635686962176</v>
       </c>
       <c r="N14">
-        <v>0.9919787210283225</v>
+        <v>1.124341972309334</v>
       </c>
       <c r="O14">
-        <v>0.9920068783467523</v>
+        <v>1.082056834901335</v>
       </c>
       <c r="P14">
-        <v>0.9920068783467523</v>
+        <v>1.082056834901335</v>
       </c>
       <c r="Q14">
-        <v>0.9918523608564576</v>
+        <v>0.9913009042432019</v>
       </c>
       <c r="R14">
-        <v>0.9918523608564576</v>
+        <v>0.9913009042432019</v>
       </c>
       <c r="S14">
-        <v>0.9916627126394495</v>
+        <v>1.185080242978135</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1400,55 +1403,55 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9962711847450469</v>
+        <v>0.9913888083855734</v>
       </c>
       <c r="D15">
-        <v>1.024484057118631</v>
+        <v>0.9925452757136934</v>
       </c>
       <c r="E15">
-        <v>0.9800733797513054</v>
+        <v>0.9920865509409903</v>
       </c>
       <c r="F15">
-        <v>0.9962711847450469</v>
+        <v>0.9913888083855734</v>
       </c>
       <c r="G15">
-        <v>1.003022291033661</v>
+        <v>0.9913043364302838</v>
       </c>
       <c r="H15">
-        <v>0.9493044161266583</v>
+        <v>0.9918818382650738</v>
       </c>
       <c r="I15">
-        <v>0.9849159211465285</v>
+        <v>0.990769466101082</v>
       </c>
       <c r="J15">
-        <v>1.024484057118631</v>
+        <v>0.9925452757136934</v>
       </c>
       <c r="K15">
-        <v>0.9962711847450469</v>
+        <v>0.9913888083855734</v>
       </c>
       <c r="L15">
-        <v>1.002278718434968</v>
+        <v>0.9923159133273418</v>
       </c>
       <c r="M15">
-        <v>1.002278718434968</v>
+        <v>0.9923159133273418</v>
       </c>
       <c r="N15">
-        <v>1.002526575967866</v>
+        <v>0.9919787210283225</v>
       </c>
       <c r="O15">
-        <v>1.000276207204994</v>
+        <v>0.9920068783467523</v>
       </c>
       <c r="P15">
-        <v>1.000276207204994</v>
+        <v>0.9920068783467523</v>
       </c>
       <c r="Q15">
-        <v>0.9992749515900076</v>
+        <v>0.9918523608564576</v>
       </c>
       <c r="R15">
-        <v>0.9992749515900076</v>
+        <v>0.9918523608564576</v>
       </c>
       <c r="S15">
-        <v>0.9896785416536386</v>
+        <v>0.9916627126394495</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1459,55 +1462,55 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.98023738817759</v>
+        <v>0.9962711847450469</v>
       </c>
       <c r="D16">
-        <v>0.9646585962709598</v>
+        <v>1.024484057118631</v>
       </c>
       <c r="E16">
-        <v>0.9634178152223809</v>
+        <v>0.9800733797513054</v>
       </c>
       <c r="F16">
-        <v>0.98023738817759</v>
+        <v>0.9962711847450469</v>
       </c>
       <c r="G16">
-        <v>1.01497450113505</v>
+        <v>1.003022291033661</v>
       </c>
       <c r="H16">
-        <v>0.9047688991184719</v>
+        <v>0.9493044161266583</v>
       </c>
       <c r="I16">
-        <v>0.9809017329226738</v>
+        <v>0.9849159211465285</v>
       </c>
       <c r="J16">
-        <v>0.9646585962709598</v>
+        <v>1.024484057118631</v>
       </c>
       <c r="K16">
-        <v>0.98023738817759</v>
+        <v>0.9962711847450469</v>
       </c>
       <c r="L16">
-        <v>0.9640382057466703</v>
+        <v>1.002278718434968</v>
       </c>
       <c r="M16">
-        <v>0.9640382057466703</v>
+        <v>1.002278718434968</v>
       </c>
       <c r="N16">
-        <v>0.9810169708761302</v>
+        <v>1.002526575967866</v>
       </c>
       <c r="O16">
-        <v>0.9694379332236435</v>
+        <v>1.000276207204994</v>
       </c>
       <c r="P16">
-        <v>0.9694379332236437</v>
+        <v>1.000276207204994</v>
       </c>
       <c r="Q16">
-        <v>0.9721377969621302</v>
+        <v>0.9992749515900076</v>
       </c>
       <c r="R16">
-        <v>0.9721377969621302</v>
+        <v>0.9992749515900076</v>
       </c>
       <c r="S16">
-        <v>0.9681598221411879</v>
+        <v>0.9896785416536386</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1518,55 +1521,55 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.989080152013872</v>
+        <v>0.98023738817759</v>
       </c>
       <c r="D17">
-        <v>0.9991259106184381</v>
+        <v>0.9646585962709598</v>
       </c>
       <c r="E17">
-        <v>0.9936379178486741</v>
+        <v>0.9634178152223809</v>
       </c>
       <c r="F17">
-        <v>0.989080152013872</v>
+        <v>0.98023738817759</v>
       </c>
       <c r="G17">
-        <v>0.9897256104063801</v>
+        <v>1.01497450113505</v>
       </c>
       <c r="H17">
-        <v>1.003694588434451</v>
+        <v>0.9047688991184719</v>
       </c>
       <c r="I17">
-        <v>0.9890357143160963</v>
+        <v>0.9809017329226738</v>
       </c>
       <c r="J17">
-        <v>0.9991259106184381</v>
+        <v>0.9646585962709598</v>
       </c>
       <c r="K17">
-        <v>0.989080152013872</v>
+        <v>0.98023738817759</v>
       </c>
       <c r="L17">
-        <v>0.9963819142335562</v>
+        <v>0.9640382057466703</v>
       </c>
       <c r="M17">
-        <v>0.9963819142335562</v>
+        <v>0.9640382057466703</v>
       </c>
       <c r="N17">
-        <v>0.9941631462911641</v>
+        <v>0.9810169708761302</v>
       </c>
       <c r="O17">
-        <v>0.9939479934936615</v>
+        <v>0.9694379332236435</v>
       </c>
       <c r="P17">
-        <v>0.9939479934936614</v>
+        <v>0.9694379332236437</v>
       </c>
       <c r="Q17">
-        <v>0.992731033123714</v>
+        <v>0.9721377969621302</v>
       </c>
       <c r="R17">
-        <v>0.992731033123714</v>
+        <v>0.9721377969621302</v>
       </c>
       <c r="S17">
-        <v>0.9940499822729851</v>
+        <v>0.9681598221411879</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1577,55 +1580,55 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.033219751630588</v>
+        <v>0.989080152013872</v>
       </c>
       <c r="D18">
-        <v>1.004797510453449</v>
+        <v>0.9991259106184381</v>
       </c>
       <c r="E18">
-        <v>0.9933238047904386</v>
+        <v>0.9936379178486741</v>
       </c>
       <c r="F18">
-        <v>1.033219751630588</v>
+        <v>0.989080152013872</v>
       </c>
       <c r="G18">
-        <v>0.9803211593156388</v>
+        <v>0.9897256104063801</v>
       </c>
       <c r="H18">
-        <v>0.9927742480790877</v>
+        <v>1.003694588434451</v>
       </c>
       <c r="I18">
-        <v>0.9892194782087405</v>
+        <v>0.9890357143160963</v>
       </c>
       <c r="J18">
-        <v>1.004797510453449</v>
+        <v>0.9991259106184381</v>
       </c>
       <c r="K18">
-        <v>1.033219751630588</v>
+        <v>0.989080152013872</v>
       </c>
       <c r="L18">
-        <v>0.9990606576219441</v>
+        <v>0.9963819142335562</v>
       </c>
       <c r="M18">
-        <v>0.9990606576219441</v>
+        <v>0.9963819142335562</v>
       </c>
       <c r="N18">
-        <v>0.992814158186509</v>
+        <v>0.9941631462911641</v>
       </c>
       <c r="O18">
-        <v>1.010447022291492</v>
+        <v>0.9939479934936615</v>
       </c>
       <c r="P18">
-        <v>1.010447022291492</v>
+        <v>0.9939479934936614</v>
       </c>
       <c r="Q18">
-        <v>1.016140204626266</v>
+        <v>0.992731033123714</v>
       </c>
       <c r="R18">
-        <v>1.016140204626266</v>
+        <v>0.992731033123714</v>
       </c>
       <c r="S18">
-        <v>0.9989426587463237</v>
+        <v>0.9940499822729851</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1636,55 +1639,55 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.019912211747523</v>
+        <v>1.033219751630588</v>
       </c>
       <c r="D19">
-        <v>1.020453785219108</v>
+        <v>1.004797510453449</v>
       </c>
       <c r="E19">
-        <v>1.006079116465087</v>
+        <v>0.9933238047904386</v>
       </c>
       <c r="F19">
-        <v>1.019912211747523</v>
+        <v>1.033219751630588</v>
       </c>
       <c r="G19">
-        <v>0.9915233341376499</v>
+        <v>0.9803211593156388</v>
       </c>
       <c r="H19">
-        <v>0.986750693204526</v>
+        <v>0.9927742480790877</v>
       </c>
       <c r="I19">
-        <v>0.9700614142588169</v>
+        <v>0.9892194782087405</v>
       </c>
       <c r="J19">
-        <v>1.020453785219108</v>
+        <v>1.004797510453449</v>
       </c>
       <c r="K19">
-        <v>1.019912211747523</v>
+        <v>1.033219751630588</v>
       </c>
       <c r="L19">
-        <v>1.013266450842098</v>
+        <v>0.9990606576219441</v>
       </c>
       <c r="M19">
-        <v>1.013266450842098</v>
+        <v>0.9990606576219441</v>
       </c>
       <c r="N19">
-        <v>1.006018745273948</v>
+        <v>0.992814158186509</v>
       </c>
       <c r="O19">
-        <v>1.01548170447724</v>
+        <v>1.010447022291492</v>
       </c>
       <c r="P19">
-        <v>1.01548170447724</v>
+        <v>1.010447022291492</v>
       </c>
       <c r="Q19">
-        <v>1.01658933129481</v>
+        <v>1.016140204626266</v>
       </c>
       <c r="R19">
-        <v>1.01658933129481</v>
+        <v>1.016140204626266</v>
       </c>
       <c r="S19">
-        <v>0.9991300925054519</v>
+        <v>0.9989426587463237</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -1695,55 +1698,55 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.09590188121111</v>
+        <v>1.019912211747523</v>
       </c>
       <c r="D20">
-        <v>1.059546595397741</v>
+        <v>1.020453785219108</v>
       </c>
       <c r="E20">
-        <v>1.014470220847151</v>
+        <v>1.006079116465087</v>
       </c>
       <c r="F20">
-        <v>1.09590188121111</v>
+        <v>1.019912211747523</v>
       </c>
       <c r="G20">
-        <v>0.9311786031049188</v>
+        <v>0.9915233341376499</v>
       </c>
       <c r="H20">
-        <v>1.033800462893358</v>
+        <v>0.986750693204526</v>
       </c>
       <c r="I20">
-        <v>0.9779116901578967</v>
+        <v>0.9700614142588169</v>
       </c>
       <c r="J20">
-        <v>1.059546595397741</v>
+        <v>1.020453785219108</v>
       </c>
       <c r="K20">
-        <v>1.09590188121111</v>
+        <v>1.019912211747523</v>
       </c>
       <c r="L20">
-        <v>1.037008408122446</v>
+        <v>1.013266450842098</v>
       </c>
       <c r="M20">
-        <v>1.037008408122446</v>
+        <v>1.013266450842098</v>
       </c>
       <c r="N20">
-        <v>1.001731806449937</v>
+        <v>1.006018745273948</v>
       </c>
       <c r="O20">
-        <v>1.056639565818667</v>
+        <v>1.01548170447724</v>
       </c>
       <c r="P20">
-        <v>1.056639565818667</v>
+        <v>1.01548170447724</v>
       </c>
       <c r="Q20">
-        <v>1.066455144666778</v>
+        <v>1.01658933129481</v>
       </c>
       <c r="R20">
-        <v>1.066455144666778</v>
+        <v>1.01658933129481</v>
       </c>
       <c r="S20">
-        <v>1.018801575602029</v>
+        <v>0.9991300925054519</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -1754,55 +1757,55 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9873249275394145</v>
+        <v>1.09590188121111</v>
       </c>
       <c r="D21">
-        <v>1.035664420211176</v>
+        <v>1.059546595397741</v>
       </c>
       <c r="E21">
-        <v>0.9847067180877344</v>
+        <v>1.014470220847151</v>
       </c>
       <c r="F21">
-        <v>0.9873249275394145</v>
+        <v>1.09590188121111</v>
       </c>
       <c r="G21">
-        <v>1.000657143404752</v>
+        <v>0.9311786031049188</v>
       </c>
       <c r="H21">
-        <v>0.9713386018810374</v>
+        <v>1.033800462893358</v>
       </c>
       <c r="I21">
-        <v>0.9820572975878975</v>
+        <v>0.9779116901578967</v>
       </c>
       <c r="J21">
-        <v>1.035664420211176</v>
+        <v>1.059546595397741</v>
       </c>
       <c r="K21">
-        <v>0.9873249275394145</v>
+        <v>1.09590188121111</v>
       </c>
       <c r="L21">
-        <v>1.010185569149455</v>
+        <v>1.037008408122446</v>
       </c>
       <c r="M21">
-        <v>1.010185569149455</v>
+        <v>1.037008408122446</v>
       </c>
       <c r="N21">
-        <v>1.007009427234554</v>
+        <v>1.001731806449937</v>
       </c>
       <c r="O21">
-        <v>1.002565355279442</v>
+        <v>1.056639565818667</v>
       </c>
       <c r="P21">
-        <v>1.002565355279442</v>
+        <v>1.056639565818667</v>
       </c>
       <c r="Q21">
-        <v>0.9987552483444349</v>
+        <v>1.066455144666778</v>
       </c>
       <c r="R21">
-        <v>0.9987552483444349</v>
+        <v>1.066455144666778</v>
       </c>
       <c r="S21">
-        <v>0.9936248514520022</v>
+        <v>1.018801575602029</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -1813,55 +1816,55 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9841150526922118</v>
+        <v>0.9873249275394145</v>
       </c>
       <c r="D22">
-        <v>1.061471899133781</v>
+        <v>1.035664420211176</v>
       </c>
       <c r="E22">
-        <v>1.001327475014488</v>
+        <v>0.9847067180877344</v>
       </c>
       <c r="F22">
-        <v>0.9841150526922118</v>
+        <v>0.9873249275394145</v>
       </c>
       <c r="G22">
-        <v>0.9910667502907224</v>
+        <v>1.000657143404752</v>
       </c>
       <c r="H22">
-        <v>0.9840254215067432</v>
+        <v>0.9713386018810374</v>
       </c>
       <c r="I22">
-        <v>0.9765440561854808</v>
+        <v>0.9820572975878975</v>
       </c>
       <c r="J22">
-        <v>1.061471899133781</v>
+        <v>1.035664420211176</v>
       </c>
       <c r="K22">
-        <v>0.9841150526922118</v>
+        <v>0.9873249275394145</v>
       </c>
       <c r="L22">
-        <v>1.031399687074134</v>
+        <v>1.010185569149455</v>
       </c>
       <c r="M22">
-        <v>1.031399687074134</v>
+        <v>1.010185569149455</v>
       </c>
       <c r="N22">
-        <v>1.017955374812997</v>
+        <v>1.007009427234554</v>
       </c>
       <c r="O22">
-        <v>1.01563814228016</v>
+        <v>1.002565355279442</v>
       </c>
       <c r="P22">
-        <v>1.01563814228016</v>
+        <v>1.002565355279442</v>
       </c>
       <c r="Q22">
-        <v>1.007757369883173</v>
+        <v>0.9987552483444349</v>
       </c>
       <c r="R22">
-        <v>1.007757369883173</v>
+        <v>0.9987552483444349</v>
       </c>
       <c r="S22">
-        <v>0.9997584424705711</v>
+        <v>0.9936248514520022</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -1872,55 +1875,55 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.979757511789778</v>
+        <v>0.9841150526922118</v>
       </c>
       <c r="D23">
-        <v>0.9900273868692995</v>
+        <v>1.061471899133781</v>
       </c>
       <c r="E23">
-        <v>0.9514475996063796</v>
+        <v>1.001327475014488</v>
       </c>
       <c r="F23">
-        <v>0.979757511789778</v>
+        <v>0.9841150526922118</v>
       </c>
       <c r="G23">
-        <v>1.027634794894331</v>
+        <v>0.9910667502907224</v>
       </c>
       <c r="H23">
-        <v>0.8504953776924752</v>
+        <v>0.9840254215067432</v>
       </c>
       <c r="I23">
-        <v>0.9775324094805616</v>
+        <v>0.9765440561854808</v>
       </c>
       <c r="J23">
-        <v>0.9900273868692995</v>
+        <v>1.061471899133781</v>
       </c>
       <c r="K23">
-        <v>0.979757511789778</v>
+        <v>0.9841150526922118</v>
       </c>
       <c r="L23">
-        <v>0.9707374932378395</v>
+        <v>1.031399687074134</v>
       </c>
       <c r="M23">
-        <v>0.9707374932378395</v>
+        <v>1.031399687074134</v>
       </c>
       <c r="N23">
-        <v>0.9897032604566699</v>
+        <v>1.017955374812997</v>
       </c>
       <c r="O23">
-        <v>0.9737441660884857</v>
+        <v>1.01563814228016</v>
       </c>
       <c r="P23">
-        <v>0.9737441660884857</v>
+        <v>1.01563814228016</v>
       </c>
       <c r="Q23">
-        <v>0.9752475025138088</v>
+        <v>1.007757369883173</v>
       </c>
       <c r="R23">
-        <v>0.9752475025138088</v>
+        <v>1.007757369883173</v>
       </c>
       <c r="S23">
-        <v>0.9628158467221374</v>
+        <v>0.9997584424705711</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -1931,55 +1934,55 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.009769071359389</v>
+        <v>0.979757511789778</v>
       </c>
       <c r="D24">
-        <v>1.131113728777596</v>
+        <v>0.9900273868692995</v>
       </c>
       <c r="E24">
-        <v>1.025775623125866</v>
+        <v>0.9514475996063796</v>
       </c>
       <c r="F24">
-        <v>1.009769071359389</v>
+        <v>0.979757511789778</v>
       </c>
       <c r="G24">
-        <v>0.9481640071198316</v>
+        <v>1.027634794894331</v>
       </c>
       <c r="H24">
-        <v>1.097589547343335</v>
+        <v>0.8504953776924752</v>
       </c>
       <c r="I24">
-        <v>0.9564224595424463</v>
+        <v>0.9775324094805616</v>
       </c>
       <c r="J24">
-        <v>1.131113728777596</v>
+        <v>0.9900273868692995</v>
       </c>
       <c r="K24">
-        <v>1.009769071359389</v>
+        <v>0.979757511789778</v>
       </c>
       <c r="L24">
-        <v>1.078444675951731</v>
+        <v>0.9707374932378395</v>
       </c>
       <c r="M24">
-        <v>1.078444675951731</v>
+        <v>0.9707374932378395</v>
       </c>
       <c r="N24">
-        <v>1.035017786341098</v>
+        <v>0.9897032604566699</v>
       </c>
       <c r="O24">
-        <v>1.055552807754284</v>
+        <v>0.9737441660884857</v>
       </c>
       <c r="P24">
-        <v>1.055552807754284</v>
+        <v>0.9737441660884857</v>
       </c>
       <c r="Q24">
-        <v>1.04410687365556</v>
+        <v>0.9752475025138088</v>
       </c>
       <c r="R24">
-        <v>1.04410687365556</v>
+        <v>0.9752475025138088</v>
       </c>
       <c r="S24">
-        <v>1.028139072878077</v>
+        <v>0.9628158467221374</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -1990,55 +1993,55 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.090734736414046</v>
+        <v>1.009769071359389</v>
       </c>
       <c r="D25">
-        <v>0.9823250758025703</v>
+        <v>1.131113728777596</v>
       </c>
       <c r="E25">
-        <v>0.9740307124619366</v>
+        <v>1.025775623125866</v>
       </c>
       <c r="F25">
-        <v>1.090734736414046</v>
+        <v>1.009769071359389</v>
       </c>
       <c r="G25">
-        <v>0.9833108281880457</v>
+        <v>0.9481640071198316</v>
       </c>
       <c r="H25">
-        <v>0.9331187161749539</v>
+        <v>1.097589547343335</v>
       </c>
       <c r="I25">
-        <v>0.9897512358135664</v>
+        <v>0.9564224595424463</v>
       </c>
       <c r="J25">
-        <v>0.9823250758025703</v>
+        <v>1.131113728777596</v>
       </c>
       <c r="K25">
-        <v>1.090734736414046</v>
+        <v>1.009769071359389</v>
       </c>
       <c r="L25">
-        <v>0.9781778941322534</v>
+        <v>1.078444675951731</v>
       </c>
       <c r="M25">
-        <v>0.9781778941322534</v>
+        <v>1.078444675951731</v>
       </c>
       <c r="N25">
-        <v>0.9798888721508509</v>
+        <v>1.035017786341098</v>
       </c>
       <c r="O25">
-        <v>1.015696841559518</v>
+        <v>1.055552807754284</v>
       </c>
       <c r="P25">
-        <v>1.015696841559518</v>
+        <v>1.055552807754284</v>
       </c>
       <c r="Q25">
-        <v>1.03445631527315</v>
+        <v>1.04410687365556</v>
       </c>
       <c r="R25">
-        <v>1.03445631527315</v>
+        <v>1.04410687365556</v>
       </c>
       <c r="S25">
-        <v>0.9922118841425197</v>
+        <v>1.028139072878077</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -2049,55 +2052,55 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9891375742174217</v>
+        <v>1.090734736414046</v>
       </c>
       <c r="D26">
-        <v>0.9932858727855437</v>
+        <v>0.9823250758025703</v>
       </c>
       <c r="E26">
-        <v>0.9925978450832728</v>
+        <v>0.9740307124619366</v>
       </c>
       <c r="F26">
-        <v>0.9891375742174217</v>
+        <v>1.090734736414046</v>
       </c>
       <c r="G26">
-        <v>0.9916219789434204</v>
+        <v>0.9833108281880457</v>
       </c>
       <c r="H26">
-        <v>0.993583038303712</v>
+        <v>0.9331187161749539</v>
       </c>
       <c r="I26">
-        <v>0.9907820446614509</v>
+        <v>0.9897512358135664</v>
       </c>
       <c r="J26">
-        <v>0.9932858727855437</v>
+        <v>0.9823250758025703</v>
       </c>
       <c r="K26">
-        <v>0.9891375742174217</v>
+        <v>1.090734736414046</v>
       </c>
       <c r="L26">
-        <v>0.9929418589344082</v>
+        <v>0.9781778941322534</v>
       </c>
       <c r="M26">
-        <v>0.9929418589344082</v>
+        <v>0.9781778941322534</v>
       </c>
       <c r="N26">
-        <v>0.9925018989374124</v>
+        <v>0.9798888721508509</v>
       </c>
       <c r="O26">
-        <v>0.9916737640287461</v>
+        <v>1.015696841559518</v>
       </c>
       <c r="P26">
-        <v>0.9916737640287461</v>
+        <v>1.015696841559518</v>
       </c>
       <c r="Q26">
-        <v>0.9910397165759149</v>
+        <v>1.03445631527315</v>
       </c>
       <c r="R26">
-        <v>0.9910397165759149</v>
+        <v>1.03445631527315</v>
       </c>
       <c r="S26">
-        <v>0.9918347256658037</v>
+        <v>0.9922118841425197</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -2108,55 +2111,55 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.131276595981787</v>
+        <v>0.9891375742174217</v>
       </c>
       <c r="D27">
-        <v>0.9879714111102236</v>
+        <v>0.9932858727855437</v>
       </c>
       <c r="E27">
-        <v>0.9564939976188483</v>
+        <v>0.9925978450832728</v>
       </c>
       <c r="F27">
-        <v>1.131276595981787</v>
+        <v>0.9891375742174217</v>
       </c>
       <c r="G27">
-        <v>0.9992458299930443</v>
+        <v>0.9916219789434204</v>
       </c>
       <c r="H27">
-        <v>0.8711459600612246</v>
+        <v>0.993583038303712</v>
       </c>
       <c r="I27">
-        <v>0.9822851115155034</v>
+        <v>0.9907820446614509</v>
       </c>
       <c r="J27">
-        <v>0.9879714111102236</v>
+        <v>0.9932858727855437</v>
       </c>
       <c r="K27">
-        <v>1.131276595981787</v>
+        <v>0.9891375742174217</v>
       </c>
       <c r="L27">
-        <v>0.972232704364536</v>
+        <v>0.9929418589344082</v>
       </c>
       <c r="M27">
-        <v>0.972232704364536</v>
+        <v>0.9929418589344082</v>
       </c>
       <c r="N27">
-        <v>0.9812370795740387</v>
+        <v>0.9925018989374124</v>
       </c>
       <c r="O27">
-        <v>1.02524733490362</v>
+        <v>0.9916737640287461</v>
       </c>
       <c r="P27">
-        <v>1.02524733490362</v>
+        <v>0.9916737640287461</v>
       </c>
       <c r="Q27">
-        <v>1.051754650173161</v>
+        <v>0.9910397165759149</v>
       </c>
       <c r="R27">
-        <v>1.051754650173161</v>
+        <v>0.9910397165759149</v>
       </c>
       <c r="S27">
-        <v>0.9880698177134386</v>
+        <v>0.9918347256658037</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -2167,55 +2170,55 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.240825782076852</v>
+        <v>1.131276595981787</v>
       </c>
       <c r="D28">
-        <v>0.9003179831671098</v>
+        <v>0.9879714111102236</v>
       </c>
       <c r="E28">
-        <v>0.9538747873408275</v>
+        <v>0.9564939976188483</v>
       </c>
       <c r="F28">
-        <v>1.240825782076852</v>
+        <v>1.131276595981787</v>
       </c>
       <c r="G28">
-        <v>0.9579750501574315</v>
+        <v>0.9992458299930443</v>
       </c>
       <c r="H28">
-        <v>0.8500067299575099</v>
+        <v>0.8711459600612246</v>
       </c>
       <c r="I28">
-        <v>0.9954202243768754</v>
+        <v>0.9822851115155034</v>
       </c>
       <c r="J28">
-        <v>0.9003179831671098</v>
+        <v>0.9879714111102236</v>
       </c>
       <c r="K28">
-        <v>1.240825782076852</v>
+        <v>1.131276595981787</v>
       </c>
       <c r="L28">
-        <v>0.9270963852539686</v>
+        <v>0.972232704364536</v>
       </c>
       <c r="M28">
-        <v>0.9270963852539686</v>
+        <v>0.972232704364536</v>
       </c>
       <c r="N28">
-        <v>0.9373892735551229</v>
+        <v>0.9812370795740387</v>
       </c>
       <c r="O28">
-        <v>1.031672850861597</v>
+        <v>1.02524733490362</v>
       </c>
       <c r="P28">
-        <v>1.031672850861596</v>
+        <v>1.02524733490362</v>
       </c>
       <c r="Q28">
-        <v>1.083961083665411</v>
+        <v>1.051754650173161</v>
       </c>
       <c r="R28">
-        <v>1.083961083665411</v>
+        <v>1.051754650173161</v>
       </c>
       <c r="S28">
-        <v>0.9830700928461011</v>
+        <v>0.9880698177134386</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -2226,55 +2229,55 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>1.086069609048792</v>
+        <v>1.240825782076852</v>
       </c>
       <c r="D29">
-        <v>0.982073362744206</v>
+        <v>0.9003179831671098</v>
       </c>
       <c r="E29">
-        <v>0.9740993212436666</v>
+        <v>0.9538747873408275</v>
       </c>
       <c r="F29">
-        <v>1.086069609048792</v>
+        <v>1.240825782076852</v>
       </c>
       <c r="G29">
-        <v>0.983669623406124</v>
+        <v>0.9579750501574315</v>
       </c>
       <c r="H29">
-        <v>0.9338161020183127</v>
+        <v>0.8500067299575099</v>
       </c>
       <c r="I29">
-        <v>0.989901518929447</v>
+        <v>0.9954202243768754</v>
       </c>
       <c r="J29">
-        <v>0.982073362744206</v>
+        <v>0.9003179831671098</v>
       </c>
       <c r="K29">
-        <v>1.086069609048792</v>
+        <v>1.240825782076852</v>
       </c>
       <c r="L29">
-        <v>0.9780863419939363</v>
+        <v>0.9270963852539686</v>
       </c>
       <c r="M29">
-        <v>0.9780863419939363</v>
+        <v>0.9270963852539686</v>
       </c>
       <c r="N29">
-        <v>0.9799474357979988</v>
+        <v>0.9373892735551229</v>
       </c>
       <c r="O29">
-        <v>1.014080764345555</v>
+        <v>1.031672850861597</v>
       </c>
       <c r="P29">
-        <v>1.014080764345555</v>
+        <v>1.031672850861596</v>
       </c>
       <c r="Q29">
-        <v>1.032077975521364</v>
+        <v>1.083961083665411</v>
       </c>
       <c r="R29">
-        <v>1.032077975521364</v>
+        <v>1.083961083665411</v>
       </c>
       <c r="S29">
-        <v>0.9916049228984246</v>
+        <v>0.9830700928461011</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -2285,55 +2288,55 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.988546856172684</v>
+        <v>1.086069609048792</v>
       </c>
       <c r="D30">
-        <v>0.9932622022580425</v>
+        <v>0.982073362744206</v>
       </c>
       <c r="E30">
-        <v>0.9926779297528644</v>
+        <v>0.9740993212436666</v>
       </c>
       <c r="F30">
-        <v>0.988546856172684</v>
+        <v>1.086069609048792</v>
       </c>
       <c r="G30">
-        <v>0.991691193690222</v>
+        <v>0.983669623406124</v>
       </c>
       <c r="H30">
-        <v>0.9938255232392282</v>
+        <v>0.9338161020183127</v>
       </c>
       <c r="I30">
-        <v>0.9908157705497708</v>
+        <v>0.989901518929447</v>
       </c>
       <c r="J30">
-        <v>0.9932622022580425</v>
+        <v>0.982073362744206</v>
       </c>
       <c r="K30">
-        <v>0.988546856172684</v>
+        <v>1.086069609048792</v>
       </c>
       <c r="L30">
-        <v>0.9929700660054535</v>
+        <v>0.9780863419939363</v>
       </c>
       <c r="M30">
-        <v>0.9929700660054535</v>
+        <v>0.9780863419939363</v>
       </c>
       <c r="N30">
-        <v>0.9925437752337096</v>
+        <v>0.9799474357979988</v>
       </c>
       <c r="O30">
-        <v>0.9914956627278636</v>
+        <v>1.014080764345555</v>
       </c>
       <c r="P30">
-        <v>0.9914956627278637</v>
+        <v>1.014080764345555</v>
       </c>
       <c r="Q30">
-        <v>0.9907584610890687</v>
+        <v>1.032077975521364</v>
       </c>
       <c r="R30">
-        <v>0.9907584610890687</v>
+        <v>1.032077975521364</v>
       </c>
       <c r="S30">
-        <v>0.9918032459438021</v>
+        <v>0.9916049228984246</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -2344,55 +2347,55 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>1.124927803770453</v>
+        <v>0.988546856172684</v>
       </c>
       <c r="D31">
-        <v>0.9880314271895703</v>
+        <v>0.9932622022580425</v>
       </c>
       <c r="E31">
-        <v>0.9566339483870573</v>
+        <v>0.9926779297528644</v>
       </c>
       <c r="F31">
-        <v>1.124927803770453</v>
+        <v>0.988546856172684</v>
       </c>
       <c r="G31">
-        <v>0.9995112004053278</v>
+        <v>0.991691193690222</v>
       </c>
       <c r="H31">
-        <v>0.8724259548567411</v>
+        <v>0.9938255232392282</v>
       </c>
       <c r="I31">
-        <v>0.9824939999461648</v>
+        <v>0.9908157705497708</v>
       </c>
       <c r="J31">
-        <v>0.9880314271895703</v>
+        <v>0.9932622022580425</v>
       </c>
       <c r="K31">
-        <v>1.124927803770453</v>
+        <v>0.988546856172684</v>
       </c>
       <c r="L31">
-        <v>0.9723326877883138</v>
+        <v>0.9929700660054535</v>
       </c>
       <c r="M31">
-        <v>0.9723326877883138</v>
+        <v>0.9929700660054535</v>
       </c>
       <c r="N31">
-        <v>0.9813921919939852</v>
+        <v>0.9925437752337096</v>
       </c>
       <c r="O31">
-        <v>1.023197726449027</v>
+        <v>0.9914956627278636</v>
       </c>
       <c r="P31">
-        <v>1.023197726449027</v>
+        <v>0.9914956627278637</v>
       </c>
       <c r="Q31">
-        <v>1.048630245779383</v>
+        <v>0.9907584610890687</v>
       </c>
       <c r="R31">
-        <v>1.048630245779383</v>
+        <v>0.9907584610890687</v>
       </c>
       <c r="S31">
-        <v>0.9873373890925524</v>
+        <v>0.9918032459438021</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -2403,55 +2406,55 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>1.230162556999889</v>
+        <v>1.124927803770453</v>
       </c>
       <c r="D32">
-        <v>0.9011298112967924</v>
+        <v>0.9880314271895703</v>
       </c>
       <c r="E32">
-        <v>0.9541313205150136</v>
+        <v>0.9566339483870573</v>
       </c>
       <c r="F32">
-        <v>1.230162556999889</v>
+        <v>1.124927803770453</v>
       </c>
       <c r="G32">
-        <v>0.9590212299294242</v>
+        <v>0.9995112004053278</v>
       </c>
       <c r="H32">
-        <v>0.8514686887442535</v>
+        <v>0.8724259548567411</v>
       </c>
       <c r="I32">
-        <v>0.9956615276773449</v>
+        <v>0.9824939999461648</v>
       </c>
       <c r="J32">
-        <v>0.9011298112967924</v>
+        <v>0.9880314271895703</v>
       </c>
       <c r="K32">
-        <v>1.230162556999889</v>
+        <v>1.124927803770453</v>
       </c>
       <c r="L32">
-        <v>0.927630565905903</v>
+        <v>0.9723326877883138</v>
       </c>
       <c r="M32">
-        <v>0.927630565905903</v>
+        <v>0.9723326877883138</v>
       </c>
       <c r="N32">
-        <v>0.9380941205804101</v>
+        <v>0.9813921919939852</v>
       </c>
       <c r="O32">
-        <v>1.028474562937231</v>
+        <v>1.023197726449027</v>
       </c>
       <c r="P32">
-        <v>1.028474562937231</v>
+        <v>1.023197726449027</v>
       </c>
       <c r="Q32">
-        <v>1.078896561452896</v>
+        <v>1.048630245779383</v>
       </c>
       <c r="R32">
-        <v>1.078896561452896</v>
+        <v>1.048630245779383</v>
       </c>
       <c r="S32">
-        <v>0.981929189193786</v>
+        <v>0.9873373890925524</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -2462,55 +2465,55 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>1.070270267421261</v>
+        <v>1.230162556999889</v>
       </c>
       <c r="D33">
-        <v>0.9813040665700261</v>
+        <v>0.9011298112967924</v>
       </c>
       <c r="E33">
-        <v>0.9743397498655767</v>
+        <v>0.9541313205150136</v>
       </c>
       <c r="F33">
-        <v>1.070270267421261</v>
+        <v>1.230162556999889</v>
       </c>
       <c r="G33">
-        <v>0.9849492813278062</v>
+        <v>0.9590212299294242</v>
       </c>
       <c r="H33">
-        <v>0.9365226533553507</v>
+        <v>0.8514686887442535</v>
       </c>
       <c r="I33">
-        <v>0.9904873949958907</v>
+        <v>0.9956615276773449</v>
       </c>
       <c r="J33">
-        <v>0.9813040665700261</v>
+        <v>0.9011298112967924</v>
       </c>
       <c r="K33">
-        <v>1.070270267421261</v>
+        <v>1.230162556999889</v>
       </c>
       <c r="L33">
-        <v>0.9778219082178015</v>
+        <v>0.927630565905903</v>
       </c>
       <c r="M33">
-        <v>0.9778219082178015</v>
+        <v>0.927630565905903</v>
       </c>
       <c r="N33">
-        <v>0.9801976992544698</v>
+        <v>0.9380941205804101</v>
       </c>
       <c r="O33">
-        <v>1.008638027952288</v>
+        <v>1.028474562937231</v>
       </c>
       <c r="P33">
-        <v>1.008638027952288</v>
+        <v>1.028474562937231</v>
       </c>
       <c r="Q33">
-        <v>1.024046087819531</v>
+        <v>1.078896561452896</v>
       </c>
       <c r="R33">
-        <v>1.024046087819531</v>
+        <v>1.078896561452896</v>
       </c>
       <c r="S33">
-        <v>0.989645568922652</v>
+        <v>0.981929189193786</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -2521,55 +2524,55 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.9864609669052911</v>
+        <v>1.070270267421261</v>
       </c>
       <c r="D34">
-        <v>0.9932347915959057</v>
+        <v>0.9813040665700261</v>
       </c>
       <c r="E34">
-        <v>0.9929303895646625</v>
+        <v>0.9743397498655767</v>
       </c>
       <c r="F34">
-        <v>0.9864609669052911</v>
+        <v>1.070270267421261</v>
       </c>
       <c r="G34">
-        <v>0.9918506695763312</v>
+        <v>0.9849492813278062</v>
       </c>
       <c r="H34">
-        <v>0.9946970571937831</v>
+        <v>0.9365226533553507</v>
       </c>
       <c r="I34">
-        <v>0.9909853671171444</v>
+        <v>0.9904873949958907</v>
       </c>
       <c r="J34">
-        <v>0.9932347915959057</v>
+        <v>0.9813040665700261</v>
       </c>
       <c r="K34">
-        <v>0.9864609669052911</v>
+        <v>1.070270267421261</v>
       </c>
       <c r="L34">
-        <v>0.993082590580284</v>
+        <v>0.9778219082178015</v>
       </c>
       <c r="M34">
-        <v>0.993082590580284</v>
+        <v>0.9778219082178015</v>
       </c>
       <c r="N34">
-        <v>0.992671950245633</v>
+        <v>0.9801976992544698</v>
       </c>
       <c r="O34">
-        <v>0.9908753826886197</v>
+        <v>1.008638027952288</v>
       </c>
       <c r="P34">
-        <v>0.9908753826886197</v>
+        <v>1.008638027952288</v>
       </c>
       <c r="Q34">
-        <v>0.9897717787427875</v>
+        <v>1.024046087819531</v>
       </c>
       <c r="R34">
-        <v>0.9897717787427875</v>
+        <v>1.024046087819531</v>
       </c>
       <c r="S34">
-        <v>0.9916932069921862</v>
+        <v>0.989645568922652</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -2580,55 +2583,55 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>1.103117030863312</v>
+        <v>0.9864609669052911</v>
       </c>
       <c r="D35">
-        <v>0.9882223674639591</v>
+        <v>0.9932347915959057</v>
       </c>
       <c r="E35">
-        <v>0.9571781385445177</v>
+        <v>0.9929303895646625</v>
       </c>
       <c r="F35">
-        <v>1.103117030863312</v>
+        <v>0.9864609669052911</v>
       </c>
       <c r="G35">
-        <v>1.000527530098819</v>
+        <v>0.9918506695763312</v>
       </c>
       <c r="H35">
-        <v>0.8775553573144821</v>
+        <v>0.9946970571937831</v>
       </c>
       <c r="I35">
-        <v>0.9833355159407352</v>
+        <v>0.9909853671171444</v>
       </c>
       <c r="J35">
-        <v>0.9882223674639591</v>
+        <v>0.9932347915959057</v>
       </c>
       <c r="K35">
-        <v>1.103117030863312</v>
+        <v>0.9864609669052911</v>
       </c>
       <c r="L35">
-        <v>0.9727002530042383</v>
+        <v>0.993082590580284</v>
       </c>
       <c r="M35">
-        <v>0.9727002530042383</v>
+        <v>0.993082590580284</v>
       </c>
       <c r="N35">
-        <v>0.9819760120357651</v>
+        <v>0.992671950245633</v>
       </c>
       <c r="O35">
-        <v>1.016172512290596</v>
+        <v>0.9908753826886197</v>
       </c>
       <c r="P35">
-        <v>1.016172512290596</v>
+        <v>0.9908753826886197</v>
       </c>
       <c r="Q35">
-        <v>1.037908641933775</v>
+        <v>0.9897717787427875</v>
       </c>
       <c r="R35">
-        <v>1.037908641933775</v>
+        <v>0.9897717787427875</v>
       </c>
       <c r="S35">
-        <v>0.9849893233709706</v>
+        <v>0.9916932069921862</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -2639,55 +2642,55 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>1.1935500857833</v>
+        <v>1.103117030863312</v>
       </c>
       <c r="D36">
-        <v>0.9042338269514091</v>
+        <v>0.9882223674639591</v>
       </c>
       <c r="E36">
-        <v>0.9550602242438356</v>
+        <v>0.9571781385445177</v>
       </c>
       <c r="F36">
-        <v>1.1935500857833</v>
+        <v>1.103117030863312</v>
       </c>
       <c r="G36">
-        <v>0.9630900250764864</v>
+        <v>1.000527530098819</v>
       </c>
       <c r="H36">
-        <v>0.8574064313489593</v>
+        <v>0.8775553573144821</v>
       </c>
       <c r="I36">
-        <v>0.9966403735074228</v>
+        <v>0.9833355159407352</v>
       </c>
       <c r="J36">
-        <v>0.9042338269514091</v>
+        <v>0.9882223674639591</v>
       </c>
       <c r="K36">
-        <v>1.1935500857833</v>
+        <v>1.103117030863312</v>
       </c>
       <c r="L36">
-        <v>0.9296470255976224</v>
+        <v>0.9727002530042383</v>
       </c>
       <c r="M36">
-        <v>0.9296470255976224</v>
+        <v>0.9727002530042383</v>
       </c>
       <c r="N36">
-        <v>0.9407946920905771</v>
+        <v>0.9819760120357651</v>
       </c>
       <c r="O36">
-        <v>1.017614712326181</v>
+        <v>1.016172512290596</v>
       </c>
       <c r="P36">
-        <v>1.017614712326181</v>
+        <v>1.016172512290596</v>
       </c>
       <c r="Q36">
-        <v>1.061598555690461</v>
+        <v>1.037908641933775</v>
       </c>
       <c r="R36">
-        <v>1.061598555690461</v>
+        <v>1.037908641933775</v>
       </c>
       <c r="S36">
-        <v>0.9783301611519021</v>
+        <v>0.9849893233709706</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -2698,55 +2701,55 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>1.091297698232963</v>
+        <v>1.1935500857833</v>
       </c>
       <c r="D37">
-        <v>0.9823571810791519</v>
+        <v>0.9042338269514091</v>
       </c>
       <c r="E37">
-        <v>0.9740228944531126</v>
+        <v>0.9550602242438356</v>
       </c>
       <c r="F37">
-        <v>1.091297698232963</v>
+        <v>1.1935500857833</v>
       </c>
       <c r="G37">
-        <v>0.9832669493971692</v>
+        <v>0.9630900250764864</v>
       </c>
       <c r="H37">
-        <v>0.9330431915301082</v>
+        <v>0.8574064313489593</v>
       </c>
       <c r="I37">
-        <v>0.9897355046214493</v>
+        <v>0.9966403735074228</v>
       </c>
       <c r="J37">
-        <v>0.9823571810791519</v>
+        <v>0.9042338269514091</v>
       </c>
       <c r="K37">
-        <v>1.091297698232963</v>
+        <v>1.1935500857833</v>
       </c>
       <c r="L37">
-        <v>0.9781900377661323</v>
+        <v>0.9296470255976224</v>
       </c>
       <c r="M37">
-        <v>0.9781900377661323</v>
+        <v>0.9296470255976224</v>
       </c>
       <c r="N37">
-        <v>0.9798823416431447</v>
+        <v>0.9407946920905771</v>
       </c>
       <c r="O37">
-        <v>1.015892591255076</v>
+        <v>1.017614712326181</v>
       </c>
       <c r="P37">
-        <v>1.015892591255076</v>
+        <v>1.017614712326181</v>
       </c>
       <c r="Q37">
-        <v>1.034743867999548</v>
+        <v>1.061598555690461</v>
       </c>
       <c r="R37">
-        <v>1.034743867999548</v>
+        <v>1.061598555690461</v>
       </c>
       <c r="S37">
-        <v>0.9922872365523255</v>
+        <v>0.9783301611519021</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -2757,55 +2760,55 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.9892060067247683</v>
+        <v>1.091297698232963</v>
       </c>
       <c r="D38">
-        <v>0.993289282903537</v>
+        <v>0.9823571810791519</v>
       </c>
       <c r="E38">
-        <v>0.9925886019844695</v>
+        <v>0.9740228944531126</v>
       </c>
       <c r="F38">
-        <v>0.9892060067247683</v>
+        <v>1.091297698232963</v>
       </c>
       <c r="G38">
-        <v>0.9916124143107894</v>
+        <v>0.9832669493971692</v>
       </c>
       <c r="H38">
-        <v>0.9935583540647699</v>
+        <v>0.9330431915301082</v>
       </c>
       <c r="I38">
-        <v>0.9907798151050666</v>
+        <v>0.9897355046214493</v>
       </c>
       <c r="J38">
-        <v>0.993289282903537</v>
+        <v>0.9823571810791519</v>
       </c>
       <c r="K38">
-        <v>0.9892060067247683</v>
+        <v>1.091297698232963</v>
       </c>
       <c r="L38">
-        <v>0.9929389424440033</v>
+        <v>0.9781900377661323</v>
       </c>
       <c r="M38">
-        <v>0.9929389424440033</v>
+        <v>0.9781900377661323</v>
       </c>
       <c r="N38">
-        <v>0.9924967663995986</v>
+        <v>0.9798823416431447</v>
       </c>
       <c r="O38">
-        <v>0.9916946305375917</v>
+        <v>1.015892591255076</v>
       </c>
       <c r="P38">
-        <v>0.9916946305375917</v>
+        <v>1.015892591255076</v>
       </c>
       <c r="Q38">
-        <v>0.9910724745843857</v>
+        <v>1.034743867999548</v>
       </c>
       <c r="R38">
-        <v>0.9910724745843857</v>
+        <v>1.034743867999548</v>
       </c>
       <c r="S38">
-        <v>0.9918390791822335</v>
+        <v>0.9922872365523255</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -2816,55 +2819,55 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>1.132039373584904</v>
+        <v>0.9892060067247683</v>
       </c>
       <c r="D39">
-        <v>0.9879649011066663</v>
+        <v>0.993289282903537</v>
       </c>
       <c r="E39">
-        <v>0.9564786088227797</v>
+        <v>0.9925886019844695</v>
       </c>
       <c r="F39">
-        <v>1.132039373584904</v>
+        <v>0.9892060067247683</v>
       </c>
       <c r="G39">
-        <v>0.9992140109703527</v>
+        <v>0.9916124143107894</v>
       </c>
       <c r="H39">
-        <v>0.8710036829072558</v>
+        <v>0.9935583540647699</v>
       </c>
       <c r="I39">
-        <v>0.9822603644669214</v>
+        <v>0.9907798151050666</v>
       </c>
       <c r="J39">
-        <v>0.9879649011066663</v>
+        <v>0.993289282903537</v>
       </c>
       <c r="K39">
-        <v>1.132039373584904</v>
+        <v>0.9892060067247683</v>
       </c>
       <c r="L39">
-        <v>0.972221754964723</v>
+        <v>0.9929389424440033</v>
       </c>
       <c r="M39">
-        <v>0.972221754964723</v>
+        <v>0.9929389424440033</v>
       </c>
       <c r="N39">
-        <v>0.9812191736332663</v>
+        <v>0.9924967663995986</v>
       </c>
       <c r="O39">
-        <v>1.025494294504783</v>
+        <v>0.9916946305375917</v>
       </c>
       <c r="P39">
-        <v>1.025494294504783</v>
+        <v>0.9916946305375917</v>
       </c>
       <c r="Q39">
-        <v>1.052130564274814</v>
+        <v>0.9910724745843857</v>
       </c>
       <c r="R39">
-        <v>1.052130564274814</v>
+        <v>0.9910724745843857</v>
       </c>
       <c r="S39">
-        <v>0.9881601569764801</v>
+        <v>0.9918390791822335</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -2875,55 +2878,55 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>1.242106550606228</v>
+        <v>1.132039373584904</v>
       </c>
       <c r="D40">
-        <v>0.9002311667282119</v>
+        <v>0.9879649011066663</v>
       </c>
       <c r="E40">
-        <v>0.9538439263645863</v>
+        <v>0.9564786088227797</v>
       </c>
       <c r="F40">
-        <v>1.242106550606228</v>
+        <v>1.132039373584904</v>
       </c>
       <c r="G40">
-        <v>0.9578486777587641</v>
+        <v>0.9992140109703527</v>
       </c>
       <c r="H40">
-        <v>0.8498462323606635</v>
+        <v>0.8710036829072558</v>
       </c>
       <c r="I40">
-        <v>0.9953935460679325</v>
+        <v>0.9822603644669214</v>
       </c>
       <c r="J40">
-        <v>0.9002311667282119</v>
+        <v>0.9879649011066663</v>
       </c>
       <c r="K40">
-        <v>1.242106550606228</v>
+        <v>1.132039373584904</v>
       </c>
       <c r="L40">
-        <v>0.9270375465463991</v>
+        <v>0.972221754964723</v>
       </c>
       <c r="M40">
-        <v>0.9270375465463991</v>
+        <v>0.972221754964723</v>
       </c>
       <c r="N40">
-        <v>0.9373079236171874</v>
+        <v>0.9812191736332663</v>
       </c>
       <c r="O40">
-        <v>1.032060547899675</v>
+        <v>1.025494294504783</v>
       </c>
       <c r="P40">
-        <v>1.032060547899676</v>
+        <v>1.025494294504783</v>
       </c>
       <c r="Q40">
-        <v>1.084572048576314</v>
+        <v>1.052130564274814</v>
       </c>
       <c r="R40">
-        <v>1.084572048576314</v>
+        <v>1.052130564274814</v>
       </c>
       <c r="S40">
-        <v>0.9832116833143978</v>
+        <v>0.9881601569764801</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -2934,55 +2937,55 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>1.078692906905229</v>
+        <v>1.242106550606228</v>
       </c>
       <c r="D41">
-        <v>0.9817299137801581</v>
+        <v>0.9002311667282119</v>
       </c>
       <c r="E41">
-        <v>0.974221507041284</v>
+        <v>0.9538439263645863</v>
       </c>
       <c r="F41">
-        <v>1.078692906905229</v>
+        <v>1.242106550606228</v>
       </c>
       <c r="G41">
-        <v>0.984241984795295</v>
+        <v>0.9578486777587641</v>
       </c>
       <c r="H41">
-        <v>0.9350702853822878</v>
+        <v>0.8498462323606635</v>
       </c>
       <c r="I41">
-        <v>0.9901600582405649</v>
+        <v>0.9953935460679325</v>
       </c>
       <c r="J41">
-        <v>0.9817299137801581</v>
+        <v>0.9002311667282119</v>
       </c>
       <c r="K41">
-        <v>1.078692906905229</v>
+        <v>1.242106550606228</v>
       </c>
       <c r="L41">
-        <v>0.977975710410721</v>
+        <v>0.9270375465463991</v>
       </c>
       <c r="M41">
-        <v>0.977975710410721</v>
+        <v>0.9270375465463991</v>
       </c>
       <c r="N41">
-        <v>0.9800644685389123</v>
+        <v>0.9373079236171874</v>
       </c>
       <c r="O41">
-        <v>1.011548109242224</v>
+        <v>1.032060547899675</v>
       </c>
       <c r="P41">
-        <v>1.011548109242224</v>
+        <v>1.032060547899676</v>
       </c>
       <c r="Q41">
-        <v>1.028334308657975</v>
+        <v>1.084572048576314</v>
       </c>
       <c r="R41">
-        <v>1.028334308657975</v>
+        <v>1.084572048576314</v>
       </c>
       <c r="S41">
-        <v>0.9906861093574698</v>
+        <v>0.9832116833143978</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -2993,55 +2996,55 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.9876084757904073</v>
+        <v>1.078692906905229</v>
       </c>
       <c r="D42">
-        <v>0.9932680926764438</v>
+        <v>0.9817299137801581</v>
       </c>
       <c r="E42">
-        <v>0.9928021674047723</v>
+        <v>0.974221507041284</v>
       </c>
       <c r="F42">
-        <v>0.9876084757904073</v>
+        <v>1.078692906905229</v>
       </c>
       <c r="G42">
-        <v>0.9917644668684953</v>
+        <v>0.984241984795295</v>
       </c>
       <c r="H42">
-        <v>0.9942560116544287</v>
+        <v>0.9350702853822878</v>
       </c>
       <c r="I42">
-        <v>0.9908911751577989</v>
+        <v>0.9901600582405649</v>
       </c>
       <c r="J42">
-        <v>0.9932680926764438</v>
+        <v>0.9817299137801581</v>
       </c>
       <c r="K42">
-        <v>0.9876084757904073</v>
+        <v>1.078692906905229</v>
       </c>
       <c r="L42">
-        <v>0.9930351300406081</v>
+        <v>0.977975710410721</v>
       </c>
       <c r="M42">
-        <v>0.9930351300406081</v>
+        <v>0.977975710410721</v>
       </c>
       <c r="N42">
-        <v>0.9926115756499039</v>
+        <v>0.9800644685389123</v>
       </c>
       <c r="O42">
-        <v>0.9912262452905413</v>
+        <v>1.011548109242224</v>
       </c>
       <c r="P42">
-        <v>0.9912262452905413</v>
+        <v>1.011548109242224</v>
       </c>
       <c r="Q42">
-        <v>0.9903218029155078</v>
+        <v>1.028334308657975</v>
       </c>
       <c r="R42">
-        <v>0.9903218029155078</v>
+        <v>1.028334308657975</v>
       </c>
       <c r="S42">
-        <v>0.9917650649253912</v>
+        <v>0.9906861093574698</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -3052,55 +3055,55 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>1.114783842862379</v>
+        <v>0.9876084757904073</v>
       </c>
       <c r="D43">
-        <v>0.9881219225992361</v>
+        <v>0.9932680926764438</v>
       </c>
       <c r="E43">
-        <v>0.9568652598845762</v>
+        <v>0.9928021674047723</v>
       </c>
       <c r="F43">
-        <v>1.114783842862379</v>
+        <v>0.9876084757904073</v>
       </c>
       <c r="G43">
-        <v>0.9999621551463017</v>
+        <v>0.9917644668684953</v>
       </c>
       <c r="H43">
-        <v>0.8747173469720895</v>
+        <v>0.9942560116544287</v>
       </c>
       <c r="I43">
-        <v>0.9828558300703348</v>
+        <v>0.9908911751577989</v>
       </c>
       <c r="J43">
-        <v>0.9881219225992361</v>
+        <v>0.9932680926764438</v>
       </c>
       <c r="K43">
-        <v>1.114783842862379</v>
+        <v>0.9876084757904073</v>
       </c>
       <c r="L43">
-        <v>0.9724935912419062</v>
+        <v>0.9930351300406081</v>
       </c>
       <c r="M43">
-        <v>0.9724935912419062</v>
+        <v>0.9930351300406081</v>
       </c>
       <c r="N43">
-        <v>0.9816497792100379</v>
+        <v>0.9926115756499039</v>
       </c>
       <c r="O43">
-        <v>1.019923675115397</v>
+        <v>0.9912262452905413</v>
       </c>
       <c r="P43">
-        <v>1.019923675115397</v>
+        <v>0.9912262452905413</v>
       </c>
       <c r="Q43">
-        <v>1.043638717052143</v>
+        <v>0.9903218029155078</v>
       </c>
       <c r="R43">
-        <v>1.043638717052143</v>
+        <v>0.9903218029155078</v>
       </c>
       <c r="S43">
-        <v>0.9862177262558197</v>
+        <v>0.9917650649253912</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -3111,55 +3114,55 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>1.213099852748751</v>
+        <v>1.114783842862379</v>
       </c>
       <c r="D44">
-        <v>0.9025359329420812</v>
+        <v>0.9881219225992361</v>
       </c>
       <c r="E44">
-        <v>0.9545555732392801</v>
+        <v>0.9568652598845762</v>
       </c>
       <c r="F44">
-        <v>1.213099852748751</v>
+        <v>1.114783842862379</v>
       </c>
       <c r="G44">
-        <v>0.9608405402768582</v>
+        <v>0.9999621551463017</v>
       </c>
       <c r="H44">
-        <v>0.8541526044485518</v>
+        <v>0.8747173469720895</v>
       </c>
       <c r="I44">
-        <v>0.9960828649009804</v>
+        <v>0.9828558300703348</v>
       </c>
       <c r="J44">
-        <v>0.9025359329420812</v>
+        <v>0.9881219225992361</v>
       </c>
       <c r="K44">
-        <v>1.213099852748751</v>
+        <v>1.114783842862379</v>
       </c>
       <c r="L44">
-        <v>0.9285457530906807</v>
+        <v>0.9724935912419062</v>
       </c>
       <c r="M44">
-        <v>0.9285457530906807</v>
+        <v>0.9724935912419062</v>
       </c>
       <c r="N44">
-        <v>0.9393106821527398</v>
+        <v>0.9816497792100379</v>
       </c>
       <c r="O44">
-        <v>1.023397119643371</v>
+        <v>1.019923675115397</v>
       </c>
       <c r="P44">
-        <v>1.023397119643371</v>
+        <v>1.019923675115397</v>
       </c>
       <c r="Q44">
-        <v>1.070822802919716</v>
+        <v>1.043638717052143</v>
       </c>
       <c r="R44">
-        <v>1.070822802919716</v>
+        <v>1.043638717052143</v>
       </c>
       <c r="S44">
-        <v>0.9802112280927505</v>
+        <v>0.9862177262558197</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3170,55 +3173,55 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>1.067995484142442</v>
+        <v>1.213099852748751</v>
       </c>
       <c r="D45">
-        <v>0.981183144439784</v>
+        <v>0.9025359329420812</v>
       </c>
       <c r="E45">
-        <v>0.9743793218467272</v>
+        <v>0.9545555732392801</v>
       </c>
       <c r="F45">
-        <v>1.067995484142442</v>
+        <v>1.213099852748751</v>
       </c>
       <c r="G45">
-        <v>0.9851444199171391</v>
+        <v>0.9608405402768582</v>
       </c>
       <c r="H45">
-        <v>0.9369446141209925</v>
+        <v>0.8541526044485518</v>
       </c>
       <c r="I45">
-        <v>0.9905676036104336</v>
+        <v>0.9960828649009804</v>
       </c>
       <c r="J45">
-        <v>0.981183144439784</v>
+        <v>0.9025359329420812</v>
       </c>
       <c r="K45">
-        <v>1.067995484142442</v>
+        <v>1.213099852748751</v>
       </c>
       <c r="L45">
-        <v>0.9777812331432556</v>
+        <v>0.9285457530906807</v>
       </c>
       <c r="M45">
-        <v>0.9777812331432556</v>
+        <v>0.9285457530906807</v>
       </c>
       <c r="N45">
-        <v>0.9802356287345502</v>
+        <v>0.9393106821527398</v>
       </c>
       <c r="O45">
-        <v>1.007852650142984</v>
+        <v>1.023397119643371</v>
       </c>
       <c r="P45">
-        <v>1.007852650142984</v>
+        <v>1.023397119643371</v>
       </c>
       <c r="Q45">
-        <v>1.022888358642849</v>
+        <v>1.070822802919716</v>
       </c>
       <c r="R45">
-        <v>1.022888358642849</v>
+        <v>1.070822802919716</v>
       </c>
       <c r="S45">
-        <v>0.9893690980129198</v>
+        <v>0.9802112280927505</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -3229,55 +3232,55 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>0.9861604766470871</v>
+        <v>1.067995484142442</v>
       </c>
       <c r="D46">
-        <v>0.9932246834078751</v>
+        <v>0.981183144439784</v>
       </c>
       <c r="E46">
-        <v>0.9929652977916379</v>
+        <v>0.9743793218467272</v>
       </c>
       <c r="F46">
-        <v>0.9861604766470871</v>
+        <v>1.067995484142442</v>
       </c>
       <c r="G46">
-        <v>0.9918699101998121</v>
+        <v>0.9851444199171391</v>
       </c>
       <c r="H46">
-        <v>0.99483843046006</v>
+        <v>0.9369446141209925</v>
       </c>
       <c r="I46">
-        <v>0.9909976895763544</v>
+        <v>0.9905676036104336</v>
       </c>
       <c r="J46">
-        <v>0.9932246834078751</v>
+        <v>0.981183144439784</v>
       </c>
       <c r="K46">
-        <v>0.9861604766470871</v>
+        <v>1.067995484142442</v>
       </c>
       <c r="L46">
-        <v>0.9930949905997565</v>
+        <v>0.9777812331432556</v>
       </c>
       <c r="M46">
-        <v>0.9930949905997565</v>
+        <v>0.9777812331432556</v>
       </c>
       <c r="N46">
-        <v>0.9926866304664417</v>
+        <v>0.9802356287345502</v>
       </c>
       <c r="O46">
-        <v>0.9907834859488668</v>
+        <v>1.007852650142984</v>
       </c>
       <c r="P46">
-        <v>0.9907834859488668</v>
+        <v>1.007852650142984</v>
       </c>
       <c r="Q46">
-        <v>0.9896277336234218</v>
+        <v>1.022888358642849</v>
       </c>
       <c r="R46">
-        <v>0.9896277336234218</v>
+        <v>1.022888358642849</v>
       </c>
       <c r="S46">
-        <v>0.9916760813471378</v>
+        <v>0.9893690980129198</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -3288,55 +3291,55 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>1.099936635098375</v>
+        <v>0.9861604766470871</v>
       </c>
       <c r="D47">
-        <v>0.9882574477518048</v>
+        <v>0.9932246834078751</v>
       </c>
       <c r="E47">
-        <v>0.9572751926947997</v>
+        <v>0.9929652977916379</v>
       </c>
       <c r="F47">
-        <v>1.099936635098375</v>
+        <v>0.9861604766470871</v>
       </c>
       <c r="G47">
-        <v>1.000680173315376</v>
+        <v>0.9918699101998121</v>
       </c>
       <c r="H47">
-        <v>0.878381835317847</v>
+        <v>0.99483843046006</v>
       </c>
       <c r="I47">
-        <v>0.9834674285268956</v>
+        <v>0.9909976895763544</v>
       </c>
       <c r="J47">
-        <v>0.9882574477518048</v>
+        <v>0.9932246834078751</v>
       </c>
       <c r="K47">
-        <v>1.099936635098375</v>
+        <v>0.9861604766470871</v>
       </c>
       <c r="L47">
-        <v>0.9727663202233022</v>
+        <v>0.9930949905997565</v>
       </c>
       <c r="M47">
-        <v>0.9727663202233022</v>
+        <v>0.9930949905997565</v>
       </c>
       <c r="N47">
-        <v>0.9820709379206601</v>
+        <v>0.9926866304664417</v>
       </c>
       <c r="O47">
-        <v>1.01515642518166</v>
+        <v>0.9907834859488668</v>
       </c>
       <c r="P47">
-        <v>1.01515642518166</v>
+        <v>0.9907834859488668</v>
       </c>
       <c r="Q47">
-        <v>1.036351477660839</v>
+        <v>0.9896277336234218</v>
       </c>
       <c r="R47">
-        <v>1.036351477660839</v>
+        <v>0.9896277336234218</v>
       </c>
       <c r="S47">
-        <v>0.9846664521175162</v>
+        <v>0.9916760813471378</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -3347,54 +3350,113 @@
         <v>46</v>
       </c>
       <c r="C48">
+        <v>1.099936635098375</v>
+      </c>
+      <c r="D48">
+        <v>0.9882574477518048</v>
+      </c>
+      <c r="E48">
+        <v>0.9572751926947997</v>
+      </c>
+      <c r="F48">
+        <v>1.099936635098375</v>
+      </c>
+      <c r="G48">
+        <v>1.000680173315376</v>
+      </c>
+      <c r="H48">
+        <v>0.878381835317847</v>
+      </c>
+      <c r="I48">
+        <v>0.9834674285268956</v>
+      </c>
+      <c r="J48">
+        <v>0.9882574477518048</v>
+      </c>
+      <c r="K48">
+        <v>1.099936635098375</v>
+      </c>
+      <c r="L48">
+        <v>0.9727663202233022</v>
+      </c>
+      <c r="M48">
+        <v>0.9727663202233022</v>
+      </c>
+      <c r="N48">
+        <v>0.9820709379206601</v>
+      </c>
+      <c r="O48">
+        <v>1.01515642518166</v>
+      </c>
+      <c r="P48">
+        <v>1.01515642518166</v>
+      </c>
+      <c r="Q48">
+        <v>1.036351477660839</v>
+      </c>
+      <c r="R48">
+        <v>1.036351477660839</v>
+      </c>
+      <c r="S48">
+        <v>0.9846664521175162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49">
         <v>1.188126580710285</v>
       </c>
-      <c r="D48">
+      <c r="D49">
         <v>0.9047176605433502</v>
       </c>
-      <c r="E48">
+      <c r="E49">
         <v>0.955177435089423</v>
       </c>
-      <c r="F48">
+      <c r="F49">
         <v>1.188126580710285</v>
       </c>
-      <c r="G48">
+      <c r="G49">
         <v>0.9637457309828759</v>
       </c>
-      <c r="H48">
+      <c r="H49">
         <v>0.8582941792732662</v>
       </c>
-      <c r="I48">
+      <c r="I49">
         <v>0.9967998339458312</v>
       </c>
-      <c r="J48">
+      <c r="J49">
         <v>0.9047176605433502</v>
       </c>
-      <c r="K48">
+      <c r="K49">
         <v>1.188126580710285</v>
       </c>
-      <c r="L48">
+      <c r="L49">
         <v>0.9299475478163866</v>
       </c>
-      <c r="M48">
+      <c r="M49">
         <v>0.9299475478163866</v>
       </c>
-      <c r="N48">
+      <c r="N49">
         <v>0.941213608871883</v>
       </c>
-      <c r="O48">
+      <c r="O49">
         <v>1.016007225447686</v>
       </c>
-      <c r="P48">
+      <c r="P49">
         <v>1.016007225447686</v>
       </c>
-      <c r="Q48">
+      <c r="Q49">
         <v>1.059037064263336</v>
       </c>
-      <c r="R48">
+      <c r="R49">
         <v>1.059037064263336</v>
       </c>
-      <c r="S48">
+      <c r="S49">
         <v>0.9778102367575051</v>
       </c>
     </row>
